--- a/slave/Timer Berechnungen.xlsx
+++ b/slave/Timer Berechnungen.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
